--- a/_sync/Python/描述词库/sd词库表格格式.xlsx
+++ b/_sync/Python/描述词库/sd词库表格格式.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6212EA85-56D2-4226-AED1-61BAFD8CCFBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8977292B-D729-468C-9D4A-2C06016D93EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常见物品" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>食品</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -540,15 +540,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>虽然如上所说,但还是实现了一个简易的逗号控制机制,增加更多玩法, 如果关键词的末尾是"#&amp;",那么不对关键词加逗号.不过出于以上几点,体验感依旧会很差,建议忽视这个功能.建议用户只简单的记录完整词条,而不追求把词条拆碎了再拼.这种情况适合可能性较少的更专用的设计场景,而不是词条组合这种可能性丰富多样的泛用式的场景.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>虽然如上所说,但还是实现了一个简易的逗号控制机制,增加更多玩法, 如果关键词的末尾是"#&amp;",那么不对关键词加逗号.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过出于以上几点,体验感依旧会很差,建议忽视这个功能.建议用户只简单的记录完整词条,而不追求把词条拆碎了再拼.这种情况适合可能性较少的更专用的设计场景,而不是词条组合这种可能性丰富多样的泛用式的场景.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,8 +610,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +634,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -650,7 +666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -658,17 +674,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13896BE-5512-45A6-8AE8-05893A4ABFA3}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1031,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B354F92-8958-4BC5-8006-3691362830D0}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1114,19 +1135,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>